--- a/Code/Results/Cases/Case_1_119/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_119/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2184140826036298</v>
+        <v>0.07901772845256971</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01255879548408956</v>
+        <v>0.01282090158601434</v>
       </c>
       <c r="E2">
-        <v>1.434394824516545</v>
+        <v>0.4189125050028082</v>
       </c>
       <c r="F2">
-        <v>0.9495518134714587</v>
+        <v>0.7907120707850055</v>
       </c>
       <c r="G2">
-        <v>0.8935479160408164</v>
+        <v>0.6460626888141263</v>
       </c>
       <c r="H2">
-        <v>0.5189947563162178</v>
+        <v>0.697944098715368</v>
       </c>
       <c r="I2">
-        <v>0.210871264096026</v>
+        <v>0.4417292335453524</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.278352738835167</v>
+        <v>0.9892845052421819</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1904739676048735</v>
+        <v>0.06996419166664225</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01273822807893588</v>
+        <v>0.01276061562164088</v>
       </c>
       <c r="E3">
-        <v>1.227131109008695</v>
+        <v>0.3652792235888711</v>
       </c>
       <c r="F3">
-        <v>0.8492903675491448</v>
+        <v>0.7733542935691702</v>
       </c>
       <c r="G3">
-        <v>0.7945494540570195</v>
+        <v>0.6281733772643889</v>
       </c>
       <c r="H3">
-        <v>0.4822150792966937</v>
+        <v>0.6956424957919722</v>
       </c>
       <c r="I3">
-        <v>0.2268848914856711</v>
+        <v>0.4493519771821184</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.844397191194446</v>
+        <v>0.863236354148313</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.173304097457887</v>
+        <v>0.06439910882150457</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01286784421153797</v>
+        <v>0.01272669363102708</v>
       </c>
       <c r="E4">
-        <v>1.102940356551244</v>
+        <v>0.3324627557361595</v>
       </c>
       <c r="F4">
-        <v>0.7904643888554261</v>
+        <v>0.7633976108373872</v>
       </c>
       <c r="G4">
-        <v>0.7366731402699429</v>
+        <v>0.6178401441101045</v>
       </c>
       <c r="H4">
-        <v>0.4612021338184036</v>
+        <v>0.6947415389205105</v>
       </c>
       <c r="I4">
-        <v>0.2374148072825513</v>
+        <v>0.4543193649620427</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.580125850641735</v>
+        <v>0.7857583879169283</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1663018126419615</v>
+        <v>0.06212994706659458</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01292500146239028</v>
+        <v>0.01271364995692181</v>
       </c>
       <c r="E5">
-        <v>1.052980916794112</v>
+        <v>0.3191161875266459</v>
       </c>
       <c r="F5">
-        <v>0.7671109585836007</v>
+        <v>0.7595152273663075</v>
       </c>
       <c r="G5">
-        <v>0.7137434894072641</v>
+        <v>0.6137914163646201</v>
       </c>
       <c r="H5">
-        <v>0.4529992233640741</v>
+        <v>0.6945026234747615</v>
       </c>
       <c r="I5">
-        <v>0.2418737795957799</v>
+        <v>0.456415642640005</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.472869117127971</v>
+        <v>0.7541639360959209</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1651387123638415</v>
+        <v>0.06175307937374441</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01293473977199966</v>
+        <v>0.01271153122995727</v>
       </c>
       <c r="E6">
-        <v>1.044721057867832</v>
+        <v>0.3169015252625229</v>
       </c>
       <c r="F6">
-        <v>0.7632685933703272</v>
+        <v>0.7588810966795592</v>
       </c>
       <c r="G6">
-        <v>0.7099735218978793</v>
+        <v>0.6131288772888581</v>
       </c>
       <c r="H6">
-        <v>0.4516579222538297</v>
+        <v>0.6944706799173872</v>
       </c>
       <c r="I6">
-        <v>0.2426241243279978</v>
+        <v>0.4567680741067441</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.455082468772218</v>
+        <v>0.7489163872529048</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1732096863787405</v>
+        <v>0.06436851128292176</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01286859816113406</v>
+        <v>0.01272651456006813</v>
       </c>
       <c r="E7">
-        <v>1.102264110046747</v>
+        <v>0.3322826554600766</v>
       </c>
       <c r="F7">
-        <v>0.7901470185799297</v>
+        <v>0.763344544552865</v>
       </c>
       <c r="G7">
-        <v>0.736361345071586</v>
+        <v>0.6177848870316325</v>
       </c>
       <c r="H7">
-        <v>0.461090092471764</v>
+        <v>0.6947377983867398</v>
       </c>
       <c r="I7">
-        <v>0.2374742719878995</v>
+        <v>0.4543473446507456</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.578677724187315</v>
+        <v>0.7853323819221885</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2087822214819255</v>
+        <v>0.07589747143293835</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01261626947136918</v>
+        <v>0.01279947372318802</v>
       </c>
       <c r="E8">
-        <v>1.362215084801861</v>
+        <v>0.4003944994745865</v>
       </c>
       <c r="F8">
-        <v>0.9143705226399845</v>
+        <v>0.7845808465062873</v>
       </c>
       <c r="G8">
-        <v>0.8587615009326441</v>
+        <v>0.6397584411409412</v>
       </c>
       <c r="H8">
-        <v>0.505965402965316</v>
+        <v>0.6970438416886253</v>
       </c>
       <c r="I8">
-        <v>0.2162433562777029</v>
+        <v>0.444297907042424</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.128201793214004</v>
+        <v>0.9458401928116018</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2785164057182499</v>
+        <v>0.09844880170884096</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01230562692404291</v>
+        <v>0.012967064628576</v>
       </c>
       <c r="E9">
-        <v>1.902656030660864</v>
+        <v>0.5349859246698117</v>
       </c>
       <c r="F9">
-        <v>1.183140243018215</v>
+        <v>0.8318472573572251</v>
       </c>
       <c r="G9">
-        <v>1.125695215808378</v>
+        <v>0.6880846735884631</v>
       </c>
       <c r="H9">
-        <v>0.6081672933456161</v>
+        <v>0.7056576607080558</v>
       </c>
       <c r="I9">
-        <v>0.180507742465748</v>
+        <v>0.4268741312777813</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.228795786939145</v>
+        <v>1.259967482288346</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3298821485608556</v>
+        <v>0.1149736298370527</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01224074830845368</v>
+        <v>0.01310517650616561</v>
       </c>
       <c r="E10">
-        <v>2.32868251060026</v>
+        <v>0.6346638144554788</v>
       </c>
       <c r="F10">
-        <v>1.401403569990634</v>
+        <v>0.8700885669360616</v>
       </c>
       <c r="G10">
-        <v>1.344244107095733</v>
+        <v>0.7268860319001362</v>
       </c>
       <c r="H10">
-        <v>0.6946623877380205</v>
+        <v>0.7145204741756856</v>
       </c>
       <c r="I10">
-        <v>0.1584053684234945</v>
+        <v>0.4154725780895436</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>5.060459745840319</v>
+        <v>1.490450583387201</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3533153781137344</v>
+        <v>0.1224799730716342</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01226148546120598</v>
+        <v>0.01317128528015843</v>
       </c>
       <c r="E11">
-        <v>2.531581694839687</v>
+        <v>0.6802196872274351</v>
       </c>
       <c r="F11">
-        <v>1.506637957352424</v>
+        <v>0.8882679699421487</v>
       </c>
       <c r="G11">
-        <v>1.450118267918668</v>
+        <v>0.7452763281368107</v>
       </c>
       <c r="H11">
-        <v>0.7372084682750142</v>
+        <v>0.7191114946402308</v>
       </c>
       <c r="I11">
-        <v>0.1493933682369963</v>
+        <v>0.4105913267349006</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>5.446192218405997</v>
+        <v>1.59525535393476</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3622018710855599</v>
+        <v>0.1253206852089193</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01227813279238887</v>
+        <v>0.01319679336254254</v>
       </c>
       <c r="E12">
-        <v>2.610006865269639</v>
+        <v>0.6975038901726975</v>
       </c>
       <c r="F12">
-        <v>1.547481673604267</v>
+        <v>0.8952661498251473</v>
       </c>
       <c r="G12">
-        <v>1.491293222897809</v>
+        <v>0.7523483567790947</v>
       </c>
       <c r="H12">
-        <v>0.7538502176290933</v>
+        <v>0.7209311110966894</v>
       </c>
       <c r="I12">
-        <v>0.1461442397360528</v>
+        <v>0.4087869892821416</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>5.593556467080305</v>
+        <v>1.634937034750465</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.360287379377823</v>
+        <v>0.1247089694124952</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01227412781689807</v>
+        <v>0.01319127860814007</v>
       </c>
       <c r="E13">
-        <v>2.593040746602185</v>
+        <v>0.6937799083939922</v>
       </c>
       <c r="F13">
-        <v>1.538638621186863</v>
+        <v>0.8937538723284746</v>
       </c>
       <c r="G13">
-        <v>1.482374597177085</v>
+        <v>0.7508204372615523</v>
       </c>
       <c r="H13">
-        <v>0.7502412910032206</v>
+        <v>0.7205356065443027</v>
       </c>
       <c r="I13">
-        <v>0.1468364898560246</v>
+        <v>0.409173622090135</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>5.561757255886221</v>
+        <v>1.626391114481294</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3540461980988994</v>
+        <v>0.1227137169917114</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01226266863015368</v>
+        <v>0.01317337432727683</v>
       </c>
       <c r="E14">
-        <v>2.538000075631885</v>
+        <v>0.6816409882942622</v>
       </c>
       <c r="F14">
-        <v>1.509977410509421</v>
+        <v>0.8888414208924473</v>
       </c>
       <c r="G14">
-        <v>1.453483089977141</v>
+        <v>0.7458559734475614</v>
       </c>
       <c r="H14">
-        <v>0.7385665224845752</v>
+        <v>0.7192595664041903</v>
       </c>
       <c r="I14">
-        <v>0.1491226992000918</v>
+        <v>0.4104419982458403</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>5.458288547470715</v>
+        <v>1.598520098614188</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3502250685479282</v>
+        <v>0.1214913295848135</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01225684699734586</v>
+        <v>0.01316246926486286</v>
       </c>
       <c r="E15">
-        <v>2.504502634390249</v>
+        <v>0.6742099517796447</v>
       </c>
       <c r="F15">
-        <v>1.492555471561914</v>
+        <v>0.8858472951498584</v>
       </c>
       <c r="G15">
-        <v>1.43593218424931</v>
+        <v>0.7428292145440594</v>
       </c>
       <c r="H15">
-        <v>0.7314867421305564</v>
+        <v>0.7184885362422051</v>
       </c>
       <c r="I15">
-        <v>0.1505447967149252</v>
+        <v>0.4112246618182915</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>5.395087167670113</v>
+        <v>1.581447584178875</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3283523436401055</v>
+        <v>0.1144828354586451</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01224053114186674</v>
+        <v>0.01310092234574967</v>
       </c>
       <c r="E16">
-        <v>2.315628745792338</v>
+        <v>0.6316911258656717</v>
       </c>
       <c r="F16">
-        <v>1.394657306027227</v>
+        <v>0.8689163808269882</v>
       </c>
       <c r="G16">
-        <v>1.337467571479806</v>
+        <v>0.7256992059120364</v>
       </c>
       <c r="H16">
-        <v>0.6919520652204199</v>
+        <v>0.7142317516916137</v>
       </c>
       <c r="I16">
-        <v>0.1590164270478738</v>
+        <v>0.4157977390970728</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>5.035419191885921</v>
+        <v>1.483600526730868</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3149534199340849</v>
+        <v>0.1101804120322214</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01224441102869633</v>
+        <v>0.01306400705365718</v>
       </c>
       <c r="E17">
-        <v>2.202277359592912</v>
+        <v>0.6056633925233825</v>
       </c>
       <c r="F17">
-        <v>1.336215354110067</v>
+        <v>0.8587314155990242</v>
       </c>
       <c r="G17">
-        <v>1.278819053449581</v>
+        <v>0.7153810762138448</v>
       </c>
       <c r="H17">
-        <v>0.6685651620830413</v>
+        <v>0.7117640739007811</v>
       </c>
       <c r="I17">
-        <v>0.1644896743071307</v>
+        <v>0.418681510792851</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>4.816824883846948</v>
+        <v>1.423563884767191</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.307252776903141</v>
+        <v>0.1077047599404324</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01225126159940615</v>
+        <v>0.01304308298910328</v>
       </c>
       <c r="E18">
-        <v>2.137917342430654</v>
+        <v>0.590712709172351</v>
       </c>
       <c r="F18">
-        <v>1.303151301872617</v>
+        <v>0.8529469303609858</v>
       </c>
       <c r="G18">
-        <v>1.245683104824963</v>
+        <v>0.709515850626957</v>
       </c>
       <c r="H18">
-        <v>0.6554099698367963</v>
+        <v>0.7103973325230584</v>
       </c>
       <c r="I18">
-        <v>0.1677349583689942</v>
+        <v>0.4203689126210719</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>4.691776478480733</v>
+        <v>1.389028296960191</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3046464195680016</v>
+        <v>0.1068663793808895</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01225433167148182</v>
+        <v>0.01303605141087871</v>
       </c>
       <c r="E19">
-        <v>2.116262003409346</v>
+        <v>0.5856539800581402</v>
       </c>
       <c r="F19">
-        <v>1.292046969173882</v>
+        <v>0.851001007721365</v>
       </c>
       <c r="G19">
-        <v>1.234562051409426</v>
+        <v>0.7075418692942037</v>
       </c>
       <c r="H19">
-        <v>0.6510047601802853</v>
+        <v>0.7099435913806929</v>
       </c>
       <c r="I19">
-        <v>0.1688500648284705</v>
+        <v>0.420945167442234</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>4.649547748858993</v>
+        <v>1.377334418853252</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3163791082706098</v>
+        <v>0.1106385186241567</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0122435096097071</v>
+        <v>0.01306790479326381</v>
       </c>
       <c r="E20">
-        <v>2.2142553165843</v>
+        <v>0.608432022405097</v>
       </c>
       <c r="F20">
-        <v>1.342378712204763</v>
+        <v>0.8598079912279672</v>
       </c>
       <c r="G20">
-        <v>1.284999440190461</v>
+        <v>0.7164722545417419</v>
       </c>
       <c r="H20">
-        <v>0.6710235902525028</v>
+        <v>0.7120213135237918</v>
       </c>
       <c r="I20">
-        <v>0.1638968828906364</v>
+        <v>0.4183715534062511</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>4.840022547982244</v>
+        <v>1.42995530785123</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3558790082903585</v>
+        <v>0.1232998209021474</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01226578164866154</v>
+        <v>0.01317862035873318</v>
       </c>
       <c r="E21">
-        <v>2.554121144427967</v>
+        <v>0.685205560997133</v>
       </c>
       <c r="F21">
-        <v>1.518367725196072</v>
+        <v>0.8902812208248889</v>
       </c>
       <c r="G21">
-        <v>1.461938495639572</v>
+        <v>0.7473112114606408</v>
       </c>
       <c r="H21">
-        <v>0.741980674329966</v>
+        <v>0.7196321639859775</v>
       </c>
       <c r="I21">
-        <v>0.1484466291864379</v>
+        <v>0.4100682475336654</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>5.488642634433347</v>
+        <v>1.606706638939499</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3817710716009657</v>
+        <v>0.1315642586652501</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01233258006671889</v>
+        <v>0.01325374456342487</v>
       </c>
       <c r="E22">
-        <v>2.785691270699772</v>
+        <v>0.7355762087192659</v>
       </c>
       <c r="F22">
-        <v>1.639258920612207</v>
+        <v>0.9108625804280166</v>
       </c>
       <c r="G22">
-        <v>1.583978496912465</v>
+        <v>0.7680966920417518</v>
       </c>
       <c r="H22">
-        <v>0.7914879158312544</v>
+        <v>0.7250793057865508</v>
       </c>
       <c r="I22">
-        <v>0.139309730563129</v>
+        <v>0.4048986086142445</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>5.920239661499181</v>
+        <v>1.722191448607475</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3679438146991885</v>
+        <v>0.1271543987773356</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.0122915401963084</v>
+        <v>0.01321339538021604</v>
       </c>
       <c r="E23">
-        <v>2.661125818033895</v>
+        <v>0.7086737239511223</v>
       </c>
       <c r="F23">
-        <v>1.574148305633102</v>
+        <v>0.8998165745952633</v>
       </c>
       <c r="G23">
-        <v>1.518200539472872</v>
+        <v>0.7569448379554728</v>
       </c>
       <c r="H23">
-        <v>0.7647521981707257</v>
+        <v>0.7221285588732655</v>
       </c>
       <c r="I23">
-        <v>0.1440933969864115</v>
+        <v>0.4076341641078489</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>5.689099099969098</v>
+        <v>1.660557790748101</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3157345467890735</v>
+        <v>0.110431415257878</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01224390286550303</v>
+        <v>0.01306614169263298</v>
       </c>
       <c r="E24">
-        <v>2.208837588650084</v>
+        <v>0.6071802845537633</v>
       </c>
       <c r="F24">
-        <v>1.339590601812574</v>
+        <v>0.8593210503729978</v>
       </c>
       <c r="G24">
-        <v>1.282203486331241</v>
+        <v>0.7159787248587577</v>
       </c>
       <c r="H24">
-        <v>0.6699112360016102</v>
+        <v>0.7119048536863488</v>
       </c>
       <c r="I24">
-        <v>0.1641645776529668</v>
+        <v>0.4185115933157562</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>4.829532956220476</v>
+        <v>1.42706580696472</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.259639742427666</v>
+        <v>0.09235509630248373</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01236526225251211</v>
+        <v>0.0129191010734715</v>
       </c>
       <c r="E25">
-        <v>1.752200370524534</v>
+        <v>0.4984483718337742</v>
       </c>
       <c r="F25">
-        <v>1.107213098058409</v>
+        <v>0.818449577447808</v>
       </c>
       <c r="G25">
-        <v>1.050024200343529</v>
+        <v>0.6744398819355979</v>
       </c>
       <c r="H25">
-        <v>0.5787350945215621</v>
+        <v>0.702885259457247</v>
       </c>
       <c r="I25">
-        <v>0.189489705959982</v>
+        <v>0.4313424922703462</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>3.927730050051423</v>
+        <v>1.17504717920059</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_119/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_119/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.07901772845256971</v>
+        <v>0.2184140826036298</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01282090158601434</v>
+        <v>0.01255879548408956</v>
       </c>
       <c r="E2">
-        <v>0.4189125050028082</v>
+        <v>1.434394824516531</v>
       </c>
       <c r="F2">
-        <v>0.7907120707850055</v>
+        <v>0.9495518134714587</v>
       </c>
       <c r="G2">
-        <v>0.6460626888141263</v>
+        <v>0.8935479160408448</v>
       </c>
       <c r="H2">
-        <v>0.697944098715368</v>
+        <v>0.5189947563163315</v>
       </c>
       <c r="I2">
-        <v>0.4417292335453524</v>
+        <v>0.210871264096026</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9892845052421819</v>
+        <v>3.278352738835224</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.06996419166664225</v>
+        <v>0.1904739676047456</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01276061562164088</v>
+        <v>0.01273822807887726</v>
       </c>
       <c r="E3">
-        <v>0.3652792235888711</v>
+        <v>1.22713110900871</v>
       </c>
       <c r="F3">
-        <v>0.7733542935691702</v>
+        <v>0.849290367549159</v>
       </c>
       <c r="G3">
-        <v>0.6281733772643889</v>
+        <v>0.7945494540570337</v>
       </c>
       <c r="H3">
-        <v>0.6956424957919722</v>
+        <v>0.4822150792966795</v>
       </c>
       <c r="I3">
-        <v>0.4493519771821184</v>
+        <v>0.2268848914856658</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.863236354148313</v>
+        <v>2.844397191194361</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.06439910882150457</v>
+        <v>0.1733040974579154</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01272669363102708</v>
+        <v>0.01286784421142606</v>
       </c>
       <c r="E4">
-        <v>0.3324627557361595</v>
+        <v>1.10294035655123</v>
       </c>
       <c r="F4">
-        <v>0.7633976108373872</v>
+        <v>0.7904643888554119</v>
       </c>
       <c r="G4">
-        <v>0.6178401441101045</v>
+        <v>0.7366731402699713</v>
       </c>
       <c r="H4">
-        <v>0.6947415389205105</v>
+        <v>0.4612021338184036</v>
       </c>
       <c r="I4">
-        <v>0.4543193649620427</v>
+        <v>0.2374148072825335</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7857583879169283</v>
+        <v>2.580125850641906</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.06212994706659458</v>
+        <v>0.1663018126420894</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01271364995692181</v>
+        <v>0.01292500146239028</v>
       </c>
       <c r="E5">
-        <v>0.3191161875266459</v>
+        <v>1.052980916794155</v>
       </c>
       <c r="F5">
-        <v>0.7595152273663075</v>
+        <v>0.7671109585836149</v>
       </c>
       <c r="G5">
-        <v>0.6137914163646201</v>
+        <v>0.7137434894072356</v>
       </c>
       <c r="H5">
-        <v>0.6945026234747615</v>
+        <v>0.4529992233640741</v>
       </c>
       <c r="I5">
-        <v>0.456415642640005</v>
+        <v>0.2418737795957604</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7541639360959209</v>
+        <v>2.472869117128084</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06175307937374441</v>
+        <v>0.1651387123638557</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01271153122995727</v>
+        <v>0.01293473977222881</v>
       </c>
       <c r="E6">
-        <v>0.3169015252625229</v>
+        <v>1.044721057867847</v>
       </c>
       <c r="F6">
-        <v>0.7588810966795592</v>
+        <v>0.7632685933703272</v>
       </c>
       <c r="G6">
-        <v>0.6131288772888581</v>
+        <v>0.7099735218977798</v>
       </c>
       <c r="H6">
-        <v>0.6944706799173872</v>
+        <v>0.451657922253716</v>
       </c>
       <c r="I6">
-        <v>0.4567680741067441</v>
+        <v>0.2426241243279978</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7489163872529048</v>
+        <v>2.455082468772332</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06436851128292176</v>
+        <v>0.1732096863786126</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01272651456006813</v>
+        <v>0.01286859816090491</v>
       </c>
       <c r="E7">
-        <v>0.3322826554600766</v>
+        <v>1.102264110046704</v>
       </c>
       <c r="F7">
-        <v>0.763344544552865</v>
+        <v>0.7901470185799297</v>
       </c>
       <c r="G7">
-        <v>0.6177848870316325</v>
+        <v>0.7363613450715718</v>
       </c>
       <c r="H7">
-        <v>0.6947377983867398</v>
+        <v>0.4610900924717356</v>
       </c>
       <c r="I7">
-        <v>0.4543473446507456</v>
+        <v>0.2374742719878995</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7853323819221885</v>
+        <v>2.578677724187315</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07589747143293835</v>
+        <v>0.2087822214819113</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01279947372318802</v>
+        <v>0.01261626947130878</v>
       </c>
       <c r="E8">
-        <v>0.4003944994745865</v>
+        <v>1.362215084801846</v>
       </c>
       <c r="F8">
-        <v>0.7845808465062873</v>
+        <v>0.9143705226399845</v>
       </c>
       <c r="G8">
-        <v>0.6397584411409412</v>
+        <v>0.8587615009326441</v>
       </c>
       <c r="H8">
-        <v>0.6970438416886253</v>
+        <v>0.5059654029654439</v>
       </c>
       <c r="I8">
-        <v>0.444297907042424</v>
+        <v>0.2162433562776904</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9458401928116018</v>
+        <v>3.128201793214089</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09844880170884096</v>
+        <v>0.2785164057180936</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.012967064628576</v>
+        <v>0.01230562692411397</v>
       </c>
       <c r="E9">
-        <v>0.5349859246698117</v>
+        <v>1.902656030660864</v>
       </c>
       <c r="F9">
-        <v>0.8318472573572251</v>
+        <v>1.183140243018229</v>
       </c>
       <c r="G9">
-        <v>0.6880846735884631</v>
+        <v>1.125695215808349</v>
       </c>
       <c r="H9">
-        <v>0.7056576607080558</v>
+        <v>0.6081672933455309</v>
       </c>
       <c r="I9">
-        <v>0.4268741312777813</v>
+        <v>0.1805077424657497</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.259967482288346</v>
+        <v>4.228795786939031</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1149736298370527</v>
+        <v>0.3298821485608698</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01310517650616561</v>
+        <v>0.01224074830867394</v>
       </c>
       <c r="E10">
-        <v>0.6346638144554788</v>
+        <v>2.328682510600245</v>
       </c>
       <c r="F10">
-        <v>0.8700885669360616</v>
+        <v>1.40140356999062</v>
       </c>
       <c r="G10">
-        <v>0.7268860319001362</v>
+        <v>1.34424410709579</v>
       </c>
       <c r="H10">
-        <v>0.7145204741756856</v>
+        <v>0.6946623877378784</v>
       </c>
       <c r="I10">
-        <v>0.4154725780895436</v>
+        <v>0.1584053684234945</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.490450583387201</v>
+        <v>5.060459745840319</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1224799730716342</v>
+        <v>0.3533153781137486</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01317128528015843</v>
+        <v>0.01226148546108874</v>
       </c>
       <c r="E11">
-        <v>0.6802196872274351</v>
+        <v>2.531581694839673</v>
       </c>
       <c r="F11">
-        <v>0.8882679699421487</v>
+        <v>1.506637957352424</v>
       </c>
       <c r="G11">
-        <v>0.7452763281368107</v>
+        <v>1.450118267918754</v>
       </c>
       <c r="H11">
-        <v>0.7191114946402308</v>
+        <v>0.7372084682750142</v>
       </c>
       <c r="I11">
-        <v>0.4105913267349006</v>
+        <v>0.1493933682369786</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.59525535393476</v>
+        <v>5.446192218406054</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1253206852089193</v>
+        <v>0.3622018710854178</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01319679336254254</v>
+        <v>0.01227813279249546</v>
       </c>
       <c r="E12">
-        <v>0.6975038901726975</v>
+        <v>2.610006865269611</v>
       </c>
       <c r="F12">
-        <v>0.8952661498251473</v>
+        <v>1.547481673604281</v>
       </c>
       <c r="G12">
-        <v>0.7523483567790947</v>
+        <v>1.491293222897752</v>
       </c>
       <c r="H12">
-        <v>0.7209311110966894</v>
+        <v>0.7538502176290933</v>
       </c>
       <c r="I12">
-        <v>0.4087869892821416</v>
+        <v>0.146144239736067</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.634937034750465</v>
+        <v>5.593556467080361</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1247089694124952</v>
+        <v>0.3602873793778372</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01319127860814007</v>
+        <v>0.01227412781683768</v>
       </c>
       <c r="E13">
-        <v>0.6937799083939922</v>
+        <v>2.593040746602156</v>
       </c>
       <c r="F13">
-        <v>0.8937538723284746</v>
+        <v>1.538638621186877</v>
       </c>
       <c r="G13">
-        <v>0.7508204372615523</v>
+        <v>1.482374597177113</v>
       </c>
       <c r="H13">
-        <v>0.7205356065443027</v>
+        <v>0.7502412910031921</v>
       </c>
       <c r="I13">
-        <v>0.409173622090135</v>
+        <v>0.1468364898560246</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.626391114481294</v>
+        <v>5.561757255886221</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1227137169917114</v>
+        <v>0.3540461980988994</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01317337432727683</v>
+        <v>0.0122626686302354</v>
       </c>
       <c r="E14">
-        <v>0.6816409882942622</v>
+        <v>2.538000075631913</v>
       </c>
       <c r="F14">
-        <v>0.8888414208924473</v>
+        <v>1.50997741050945</v>
       </c>
       <c r="G14">
-        <v>0.7458559734475614</v>
+        <v>1.453483089977055</v>
       </c>
       <c r="H14">
-        <v>0.7192595664041903</v>
+        <v>0.7385665224845468</v>
       </c>
       <c r="I14">
-        <v>0.4104419982458403</v>
+        <v>0.1491226992000776</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.598520098614188</v>
+        <v>5.458288547470886</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1214913295848135</v>
+        <v>0.3502250685480419</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01316246926486286</v>
+        <v>0.01225684699742757</v>
       </c>
       <c r="E15">
-        <v>0.6742099517796447</v>
+        <v>2.504502634390249</v>
       </c>
       <c r="F15">
-        <v>0.8858472951498584</v>
+        <v>1.492555471561914</v>
       </c>
       <c r="G15">
-        <v>0.7428292145440594</v>
+        <v>1.435932184249339</v>
       </c>
       <c r="H15">
-        <v>0.7184885362422051</v>
+        <v>0.7314867421305564</v>
       </c>
       <c r="I15">
-        <v>0.4112246618182915</v>
+        <v>0.1505447967149127</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.581447584178875</v>
+        <v>5.395087167670169</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1144828354586451</v>
+        <v>0.3283523436401055</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01310092234574967</v>
+        <v>0.01224053114194845</v>
       </c>
       <c r="E16">
-        <v>0.6316911258656717</v>
+        <v>2.315628745792353</v>
       </c>
       <c r="F16">
-        <v>0.8689163808269882</v>
+        <v>1.394657306027213</v>
       </c>
       <c r="G16">
-        <v>0.7256992059120364</v>
+        <v>1.337467571479777</v>
       </c>
       <c r="H16">
-        <v>0.7142317516916137</v>
+        <v>0.6919520652204483</v>
       </c>
       <c r="I16">
-        <v>0.4157977390970728</v>
+        <v>0.1590164270478756</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.483600526730868</v>
+        <v>5.035419191886035</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1101804120322214</v>
+        <v>0.3149534199340849</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01306400705365718</v>
+        <v>0.01224441102870344</v>
       </c>
       <c r="E17">
-        <v>0.6056633925233825</v>
+        <v>2.202277359592927</v>
       </c>
       <c r="F17">
-        <v>0.8587314155990242</v>
+        <v>1.336215354110067</v>
       </c>
       <c r="G17">
-        <v>0.7153810762138448</v>
+        <v>1.278819053449553</v>
       </c>
       <c r="H17">
-        <v>0.7117640739007811</v>
+        <v>0.6685651620830413</v>
       </c>
       <c r="I17">
-        <v>0.418681510792851</v>
+        <v>0.1644896743071289</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.423563884767191</v>
+        <v>4.816824883846778</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1077047599404324</v>
+        <v>0.3072527769031268</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01304308298910328</v>
+        <v>0.01225126159951273</v>
       </c>
       <c r="E18">
-        <v>0.590712709172351</v>
+        <v>2.137917342430654</v>
       </c>
       <c r="F18">
-        <v>0.8529469303609858</v>
+        <v>1.303151301872632</v>
       </c>
       <c r="G18">
-        <v>0.709515850626957</v>
+        <v>1.245683104824906</v>
       </c>
       <c r="H18">
-        <v>0.7103973325230584</v>
+        <v>0.6554099698367963</v>
       </c>
       <c r="I18">
-        <v>0.4203689126210719</v>
+        <v>0.1677349583689995</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.389028296960191</v>
+        <v>4.69177647848079</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1068663793808895</v>
+        <v>0.3046464195681438</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01303605141087871</v>
+        <v>0.01225433167129353</v>
       </c>
       <c r="E19">
-        <v>0.5856539800581402</v>
+        <v>2.116262003409375</v>
       </c>
       <c r="F19">
-        <v>0.851001007721365</v>
+        <v>1.292046969173867</v>
       </c>
       <c r="G19">
-        <v>0.7075418692942037</v>
+        <v>1.234562051409483</v>
       </c>
       <c r="H19">
-        <v>0.7099435913806929</v>
+        <v>0.6510047601801716</v>
       </c>
       <c r="I19">
-        <v>0.420945167442234</v>
+        <v>0.1688500648284705</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.377334418853252</v>
+        <v>4.64954774885905</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1106385186241567</v>
+        <v>0.3163791082707661</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01306790479326381</v>
+        <v>0.01224350960959697</v>
       </c>
       <c r="E20">
-        <v>0.608432022405097</v>
+        <v>2.2142553165843</v>
       </c>
       <c r="F20">
-        <v>0.8598079912279672</v>
+        <v>1.342378712204791</v>
       </c>
       <c r="G20">
-        <v>0.7164722545417419</v>
+        <v>1.284999440190518</v>
       </c>
       <c r="H20">
-        <v>0.7120213135237918</v>
+        <v>0.6710235902524744</v>
       </c>
       <c r="I20">
-        <v>0.4183715534062511</v>
+        <v>0.1638968828906346</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.42995530785123</v>
+        <v>4.840022547982301</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1232998209021474</v>
+        <v>0.3558790082903442</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01317862035873318</v>
+        <v>0.01226578164856917</v>
       </c>
       <c r="E21">
-        <v>0.685205560997133</v>
+        <v>2.554121144427981</v>
       </c>
       <c r="F21">
-        <v>0.8902812208248889</v>
+        <v>1.518367725196057</v>
       </c>
       <c r="G21">
-        <v>0.7473112114606408</v>
+        <v>1.461938495639544</v>
       </c>
       <c r="H21">
-        <v>0.7196321639859775</v>
+        <v>0.741980674329966</v>
       </c>
       <c r="I21">
-        <v>0.4100682475336654</v>
+        <v>0.1484466291864557</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.606706638939499</v>
+        <v>5.488642634433461</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1315642586652501</v>
+        <v>0.3817710716010794</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01325374456342487</v>
+        <v>0.01233258006652704</v>
       </c>
       <c r="E22">
-        <v>0.7355762087192659</v>
+        <v>2.785691270699758</v>
       </c>
       <c r="F22">
-        <v>0.9108625804280166</v>
+        <v>1.639258920612221</v>
       </c>
       <c r="G22">
-        <v>0.7680966920417518</v>
+        <v>1.58397849691255</v>
       </c>
       <c r="H22">
-        <v>0.7250793057865508</v>
+        <v>0.791487915831226</v>
       </c>
       <c r="I22">
-        <v>0.4048986086142445</v>
+        <v>0.1393097305631255</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.722191448607475</v>
+        <v>5.920239661499181</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1271543987773356</v>
+        <v>0.3679438146993022</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01321339538021604</v>
+        <v>0.01229154019627643</v>
       </c>
       <c r="E23">
-        <v>0.7086737239511223</v>
+        <v>2.661125818033966</v>
       </c>
       <c r="F23">
-        <v>0.8998165745952633</v>
+        <v>1.574148305633102</v>
       </c>
       <c r="G23">
-        <v>0.7569448379554728</v>
+        <v>1.518200539472844</v>
       </c>
       <c r="H23">
-        <v>0.7221285588732655</v>
+        <v>0.7647521981707257</v>
       </c>
       <c r="I23">
-        <v>0.4076341641078489</v>
+        <v>0.1440933969864115</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.660557790748101</v>
+        <v>5.689099099969098</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.110431415257878</v>
+        <v>0.3157345467889741</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01306614169263298</v>
+        <v>0.01224390286531118</v>
       </c>
       <c r="E24">
-        <v>0.6071802845537633</v>
+        <v>2.208837588650127</v>
       </c>
       <c r="F24">
-        <v>0.8593210503729978</v>
+        <v>1.339590601812588</v>
       </c>
       <c r="G24">
-        <v>0.7159787248587577</v>
+        <v>1.282203486331241</v>
       </c>
       <c r="H24">
-        <v>0.7119048536863488</v>
+        <v>0.6699112360014965</v>
       </c>
       <c r="I24">
-        <v>0.4185115933157562</v>
+        <v>0.1641645776529543</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.42706580696472</v>
+        <v>4.829532956220476</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.09235509630248373</v>
+        <v>0.2596397424275665</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0129191010734715</v>
+        <v>0.01236526225255474</v>
       </c>
       <c r="E25">
-        <v>0.4984483718337742</v>
+        <v>1.752200370524562</v>
       </c>
       <c r="F25">
-        <v>0.818449577447808</v>
+        <v>1.107213098058409</v>
       </c>
       <c r="G25">
-        <v>0.6744398819355979</v>
+        <v>1.050024200343529</v>
       </c>
       <c r="H25">
-        <v>0.702885259457247</v>
+        <v>0.5787350945215906</v>
       </c>
       <c r="I25">
-        <v>0.4313424922703462</v>
+        <v>0.1894897059599767</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.17504717920059</v>
+        <v>3.927730050051593</v>
       </c>
       <c r="L25">
         <v>0</v>
